--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3125.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3125.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.367869016439697</v>
+        <v>1.597641587257385</v>
       </c>
       <c r="B1">
-        <v>1.90495266057699</v>
+        <v>1.925802946090698</v>
       </c>
       <c r="C1">
-        <v>3.380798909280562</v>
+        <v>2.038169622421265</v>
       </c>
       <c r="D1">
-        <v>4.995152531611019</v>
+        <v>2.395359754562378</v>
       </c>
       <c r="E1">
-        <v>1.039696246906695</v>
+        <v>3.281719446182251</v>
       </c>
     </row>
   </sheetData>
